--- a/data/hist_data/traffic_data_sample.xlsx
+++ b/data/hist_data/traffic_data_sample.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="raw_data_monthly" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
